--- a/docs/wyniki2.xlsx
+++ b/docs/wyniki2.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C547376-341A-491F-B93C-E3CF80414F12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE9A51B7-EAE2-4A95-8C20-3967CBE048A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabela 1" sheetId="1" r:id="rId1"/>
@@ -37649,8 +37649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:V15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -38114,7 +38114,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -38210,8 +38210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E1003"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T16" sqref="T16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
